--- a/SPPSApi/Doc/Template/FS0626_Import.xlsx
+++ b/SPPSApi/Doc/Template/FS0626_Import.xlsx
@@ -39,7 +39,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>发注工厂</t>
+    <t>工区</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -393,7 +393,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
